--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caped_crusader\Documents\AnalyzeThis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="23250" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$B$2:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -226,8 +231,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,11 +313,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FULL_DATA_LIST"/>
@@ -708,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,9 +753,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,6 +788,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -949,22 +964,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
@@ -972,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1">
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1139,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1156,7 +1171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1459,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
